--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3474320.197374112</v>
+        <v>3472432.61585771</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>547048.1967442462</v>
+        <v>211666.6008231516</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8369702.47458271</v>
+        <v>8369702.474582712</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>109.6592220601852</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>65.05884990877803</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>14.86965341517866</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>38.32326053493003</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,13 +950,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>144.4888345511683</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>73.31370764131968</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>62.15398405320629</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>105.0839683962665</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>201.0891638436807</v>
+        <v>268.6413070582232</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>118.4898845065116</v>
+        <v>13.01614235399059</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>222.7433136690809</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>235.2707607354176</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>13.20203877768233</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>72.76043038242811</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002173</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>192.4915006808706</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>69.38964214559049</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>42.95895086650442</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>91.07146653910664</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.061221751178</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1083.098704810766</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>724.8330062040156</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>339.0447536057714</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>332.0992528565679</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>318.1758487951589</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753676</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164661</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>773.500346212138</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504894</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>119.6589918292312</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>119.6589918292312</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>119.6589918292312</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>119.6589918292312</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>991.2778500677821</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>991.2778500677821</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>991.2778500677821</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>991.2778500677821</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2101.359929106496</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>2101.359929106496</v>
       </c>
       <c r="X5" t="n">
-        <v>991.2778500677821</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="Y5" t="n">
-        <v>991.2778500677821</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>113.6371076753676</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>368.8844281164661</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>773.500346212138</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.974978926224</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.974978926224</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.974978926224</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y8" t="n">
-        <v>2535.974978926224</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>525.0086166875648</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>525.0086166875648</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,10 +5018,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,52 +5036,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047984</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>802.0403666355642</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1570.408513028025</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N12" t="n">
-        <v>2374.820091292176</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.9038434870653</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="C13" t="n">
-        <v>216.9038434870653</v>
+        <v>705.7023989443662</v>
       </c>
       <c r="D13" t="n">
-        <v>216.9038434870653</v>
+        <v>555.5857595320305</v>
       </c>
       <c r="E13" t="n">
-        <v>216.9038434870653</v>
+        <v>407.6726659496373</v>
       </c>
       <c r="F13" t="n">
-        <v>216.9038434870653</v>
+        <v>260.782718451727</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655734</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286127</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305954</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870653</v>
+        <v>874.6385818722731</v>
       </c>
     </row>
     <row r="14">
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>373.5080755174542</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>987.4051452743431</v>
       </c>
       <c r="M15" t="n">
-        <v>1220.905903778934</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N15" t="n">
-        <v>2025.317482043085</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028589</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5516,13 +5516,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>108.1187262680461</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>722.0157960249347</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606511</v>
+        <v>1490.383942417396</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2294.795520681547</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404651</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404651</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,49 +5674,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U19" t="n">
-        <v>1037.48362228133</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="V19" t="n">
-        <v>782.799134075443</v>
+        <v>709.4512536188987</v>
       </c>
       <c r="W19" t="n">
-        <v>493.3819640384824</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X19" t="n">
-        <v>265.3924131404651</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404651</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N21" t="n">
-        <v>2103.272883640391</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="C22" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="E22" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="G22" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="H22" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
-      <c r="C22" t="n">
-        <v>97.21709146028584</v>
-      </c>
-      <c r="D22" t="n">
-        <v>97.21709146028584</v>
-      </c>
-      <c r="E22" t="n">
-        <v>97.21709146028584</v>
-      </c>
-      <c r="F22" t="n">
-        <v>97.21709146028603</v>
-      </c>
-      <c r="G22" t="n">
-        <v>97.21709146028603</v>
-      </c>
-      <c r="H22" t="n">
-        <v>97.21709146028603</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97.21709146028603</v>
-      </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045607</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>503.0396462065434</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630132</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5981,31 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M24" t="n">
-        <v>1954.109744073479</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>969.619892635627</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>419.7848952835978</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>649.7480011519469</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>447.0175521403263</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,25 +6449,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2274.303628970133</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.4517433652479</v>
+        <v>439.5324299542177</v>
       </c>
       <c r="C31" t="n">
-        <v>617.2764257187118</v>
+        <v>396.1395502910819</v>
       </c>
       <c r="D31" t="n">
-        <v>522.920651587747</v>
+        <v>301.7837761601169</v>
       </c>
       <c r="E31" t="n">
-        <v>430.7684232867247</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="F31" t="n">
-        <v>339.6393410701853</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818944</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652479</v>
+        <v>730.451743365246</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652479</v>
+        <v>565.4200295030867</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,52 +6856,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,22 +6926,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,16 +6950,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1006.126752553338</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527475</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899877</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N39" t="n">
-        <v>1221.963989254138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M42" t="n">
-        <v>417.5524109899876</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.963989254138</v>
+        <v>2080.887084961411</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>578.5528938194192</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254958</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>436.1942749365419</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>148.85319130543</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>178.3913131276568</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>407.2149112442123</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>197.4482781700629</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>330.1271476070798</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>48.00368395686596</v>
+        <v>153.477426109387</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338542</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>29.39432965474705</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>50.9665916631597</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>273.3209595589087</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>107.0715497995092</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338592</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>93.74585171770678</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>149.1950112065043</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>69.08461360356638</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>20.21884529571378</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732279.8472214864</v>
+        <v>732279.8472214863</v>
       </c>
     </row>
     <row r="12">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541043</v>
       </c>
-      <c r="G2" t="n">
-        <v>664749.4015541044</v>
-      </c>
       <c r="H2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541042</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="K2" t="n">
         <v>691597.6334869595</v>
@@ -26347,7 +26347,7 @@
         <v>697885.5043846405</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="O2" t="n">
         <v>697885.5043846405</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759072</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758784</v>
+        <v>787.7936905758024</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758772</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758629</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477244</v>
+        <v>18952.4162047724</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="N4" t="n">
-        <v>23206.58093189632</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,34 +26476,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739321</v>
+        <v>-114000.592073932</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406123</v>
+        <v>475967.2871406127</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.2871406126</v>
+        <v>475967.2871406128</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791634</v>
+        <v>46716.78631194371</v>
       </c>
       <c r="F6" t="n">
-        <v>571974.2819148118</v>
+        <v>571876.8227888399</v>
       </c>
       <c r="G6" t="n">
-        <v>571974.2819148119</v>
+        <v>571876.82278884</v>
       </c>
       <c r="H6" t="n">
-        <v>571974.2819148122</v>
+        <v>571876.8227888399</v>
       </c>
       <c r="I6" t="n">
-        <v>571974.2819148123</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="J6" t="n">
-        <v>395551.0627222187</v>
+        <v>395453.6035962472</v>
       </c>
       <c r="K6" t="n">
-        <v>531854.4034491186</v>
+        <v>531835.9097111843</v>
       </c>
       <c r="L6" t="n">
-        <v>566620.910831852</v>
+        <v>566620.9108318519</v>
       </c>
       <c r="M6" t="n">
         <v>442162.8023988816</v>
       </c>
       <c r="N6" t="n">
-        <v>576963.8176327187</v>
+        <v>576963.8176327188</v>
       </c>
       <c r="O6" t="n">
         <v>576963.8176327187</v>
       </c>
       <c r="P6" t="n">
-        <v>532801.2123298729</v>
+        <v>532801.2123298731</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26799,7 +26799,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>214.263550704172</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>91.11203893301712</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>271.4122208267991</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>368.5527852067814</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>183.2634239189666</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>82.85718120047547</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>52.02592219651751</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>303.1189077178013</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>222.6682900738684</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>85.19271039829701</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.136594450213864e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31127,7 +31127,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>61.04368814949335</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>61.04368814949335</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31601,7 +31601,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31844,13 +31844,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>64.6160610731481</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>152.4580040397282</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>353.0329386354459</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32324,7 +32324,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32336,7 +32336,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>35.83627885109456</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>348.9381740704318</v>
+        <v>147.3268674777246</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33023,10 +33023,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>31.2010521344568</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33038,16 +33038,16 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33266,25 +33266,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>87.47659412325794</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33421,7 +33421,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
@@ -33503,13 +33503,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>269.0626963997153</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33518,10 +33518,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33737,10 +33737,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>270.7639256365558</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724846</v>
@@ -33749,16 +33749,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33898,7 +33898,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565519</v>
@@ -33974,7 +33974,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -33983,19 +33983,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>291.4295500091222</v>
       </c>
       <c r="O39" t="n">
-        <v>340.85460907735</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34129,13 +34129,13 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565519</v>
@@ -34211,28 +34211,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>340.85460907735</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,22 +34454,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>60.29709682323549</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.29709682323549</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>296.9020265967331</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>304.8525628532086</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>279.0818020779478</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>604.299013467731</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>11.01175233107096</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35972,19 +35972,19 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,10 +36054,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187475</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>47.04960104432353</v>
+        <v>383.8369411113148</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>672.5092038984134</v>
+        <v>470.8978973057062</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>157.8248501726764</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>271.9649553488649</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>592.6337262276969</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
@@ -37166,10 +37166,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>503.0498911601408</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>275.873199160879</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>639.4302122693424</v>
       </c>
       <c r="O39" t="n">
-        <v>592.1206839096351</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>592.1206839096351</v>
+        <v>54.85203372561845</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>191.5727678272056</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
